--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -558,233 +558,223 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HGSP_2000</t>
+          <t>Llama-3-8B-Instruct</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.96604180335999</v>
+        <v>14.95752739906311</v>
       </c>
       <c r="C2" t="n">
-        <v>6.424219648</v>
+        <v>8.030261248</v>
       </c>
       <c r="D2" t="n">
-        <v>39.87115478515625</v>
+        <v>19.52301597595215</v>
       </c>
       <c r="E2" t="n">
-        <v>70.00041961669922</v>
+        <v>32.22969055175781</v>
       </c>
       <c r="F2" t="n">
-        <v>58.31804281345566</v>
+        <v>84.40366972477065</v>
       </c>
       <c r="G2" t="n">
-        <v>71.9260065288357</v>
+        <v>78.83569096844396</v>
       </c>
       <c r="H2" t="n">
-        <v>51.18502290380403</v>
+        <v>75.59251145190201</v>
       </c>
       <c r="I2" t="n">
-        <v>55.48539857932123</v>
+        <v>71.66535122336228</v>
       </c>
       <c r="J2" t="n">
-        <v>59.00673400673401</v>
+        <v>78.61952861952862</v>
       </c>
       <c r="K2" t="n">
-        <v>31.74061433447099</v>
+        <v>55.80204778156996</v>
       </c>
       <c r="L2" t="n">
-        <v>32.2</v>
+        <v>43</v>
       </c>
       <c r="M2" t="n">
-        <v>51.40883130951737</v>
+        <v>69.70268568136821</v>
       </c>
       <c r="N2" t="n">
-        <v>30.94747703674242</v>
+        <v>29.09799089258659</v>
       </c>
       <c r="O2" t="n">
-        <v>32.3128117620945</v>
+        <v>34.36663389205933</v>
       </c>
       <c r="P2" t="n">
-        <v>116.5976818611691</v>
+        <v>109.7188443890742</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.576499841486415</v>
+        <v>9.114204634291431</v>
       </c>
       <c r="R2" t="n">
-        <v>39882.05615234375</v>
+        <v>15324.63330078125</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3644205431391497</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1328023322618329</v>
+        <v>0</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[11, 12, 25]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>[9, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>[9, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HGSP_5000</t>
+          <t>LLM-Pruner_1937</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.478775262832642</v>
+        <v>12.06041729450226</v>
       </c>
       <c r="C3" t="n">
-        <v>4.015136768</v>
+        <v>6.474887168</v>
       </c>
       <c r="D3" t="n">
-        <v>315.2113952636719</v>
+        <v>33.16525268554688</v>
       </c>
       <c r="E3" t="n">
-        <v>373.3147583007812</v>
+        <v>54.5002555847168</v>
       </c>
       <c r="F3" t="n">
-        <v>39.02140672782875</v>
+        <v>62.44648318042814</v>
       </c>
       <c r="G3" t="n">
-        <v>56.25680087051143</v>
+        <v>71.59956474428726</v>
       </c>
       <c r="H3" t="n">
-        <v>33.03126867157937</v>
+        <v>50.53774148575981</v>
       </c>
       <c r="I3" t="n">
-        <v>48.85556432517759</v>
+        <v>57.53749013417521</v>
       </c>
       <c r="J3" t="n">
-        <v>29.84006734006734</v>
+        <v>62.83670033670033</v>
       </c>
       <c r="K3" t="n">
-        <v>24.31740614334471</v>
+        <v>37.11604095563141</v>
       </c>
       <c r="L3" t="n">
-        <v>27.4</v>
+        <v>34.2</v>
       </c>
       <c r="M3" t="n">
-        <v>36.96035915407273</v>
+        <v>53.75343154814031</v>
       </c>
       <c r="N3" t="n">
-        <v>32.68507940586287</v>
+        <v>30.2787657401855</v>
       </c>
       <c r="O3" t="n">
-        <v>30.59499986469746</v>
+        <v>33.02644528448582</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0181738658593</v>
+        <v>114.6907242313749</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.998837041668594</v>
+        <v>8.719100927313169</v>
       </c>
       <c r="R3" t="n">
-        <v>30662.92333984375</v>
+        <v>12357.9931640625</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3378571551011375</v>
+        <v>0.1087648116978172</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1141474572530341</v>
+        <v>0.01182978426366163</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LLM-Pruner_1937</t>
+          <t>layerwise_only_2000</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.06041729450226</v>
+        <v>12.04415154457092</v>
       </c>
       <c r="C4" t="n">
-        <v>6.474887168</v>
+        <v>6.466154496</v>
       </c>
       <c r="D4" t="n">
-        <v>33.16525268554688</v>
+        <v>30.72317123413086</v>
       </c>
       <c r="E4" t="n">
-        <v>54.5002555847168</v>
+        <v>51.16838073730469</v>
       </c>
       <c r="F4" t="n">
-        <v>62.44648318042814</v>
+        <v>68.9908256880734</v>
       </c>
       <c r="G4" t="n">
-        <v>71.59956474428726</v>
+        <v>73.66702937976061</v>
       </c>
       <c r="H4" t="n">
-        <v>50.53774148575981</v>
+        <v>57.15992830113523</v>
       </c>
       <c r="I4" t="n">
-        <v>57.53749013417521</v>
+        <v>61.87845303867403</v>
       </c>
       <c r="J4" t="n">
-        <v>62.83670033670033</v>
+        <v>61.99494949494949</v>
       </c>
       <c r="K4" t="n">
-        <v>37.11604095563141</v>
+        <v>33.95904436860068</v>
       </c>
       <c r="L4" t="n">
-        <v>34.2</v>
+        <v>35.6</v>
       </c>
       <c r="M4" t="n">
-        <v>53.75343154814031</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30.2787657401855</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33.02644528448582</v>
-      </c>
-      <c r="P4" t="n">
-        <v>114.6907242313749</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.719100927313169</v>
-      </c>
-      <c r="R4" t="n">
-        <v>12357.9931640625</v>
-      </c>
+        <v>56.1786043244562</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>0.1087648116978172</v>
+        <v>0.2714827601882688</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01182978426366163</v>
+        <v>0.07370288907944106</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -798,96 +788,96 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[25, 26]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Llama-3-8B-Instruct</t>
+          <t>HGSP_2000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.95752739906311</v>
+        <v>11.96604180335999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.030261248</v>
+        <v>6.424219648</v>
       </c>
       <c r="D5" t="n">
-        <v>19.52301597595215</v>
+        <v>39.87115478515625</v>
       </c>
       <c r="E5" t="n">
-        <v>32.22969055175781</v>
+        <v>70.00041961669922</v>
       </c>
       <c r="F5" t="n">
-        <v>84.40366972477065</v>
+        <v>58.31804281345566</v>
       </c>
       <c r="G5" t="n">
-        <v>78.83569096844396</v>
+        <v>71.9260065288357</v>
       </c>
       <c r="H5" t="n">
-        <v>75.59251145190201</v>
+        <v>51.18502290380403</v>
       </c>
       <c r="I5" t="n">
-        <v>71.66535122336228</v>
+        <v>55.48539857932123</v>
       </c>
       <c r="J5" t="n">
-        <v>78.61952861952862</v>
+        <v>59.00673400673401</v>
       </c>
       <c r="K5" t="n">
-        <v>55.80204778156996</v>
+        <v>31.74061433447099</v>
       </c>
       <c r="L5" t="n">
-        <v>43</v>
+        <v>32.2</v>
       </c>
       <c r="M5" t="n">
-        <v>69.70268568136821</v>
+        <v>51.40883130951737</v>
       </c>
       <c r="N5" t="n">
-        <v>29.09799089258659</v>
+        <v>30.94747703674242</v>
       </c>
       <c r="O5" t="n">
-        <v>34.36663389205933</v>
+        <v>32.3128117620945</v>
       </c>
       <c r="P5" t="n">
-        <v>109.7188443890742</v>
+        <v>116.5976818611691</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.114204634291431</v>
+        <v>8.576499841486415</v>
       </c>
       <c r="R5" t="n">
-        <v>15324.63330078125</v>
+        <v>39882.05615234375</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3644205431391497</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1328023322618329</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[11, 12, 25]</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 10, 11, 12, 25, 26]</t>
         </is>
       </c>
     </row>
@@ -968,65 +958,55 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>blockwise_only_5000</t>
+          <t>taylor_only_2000</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.47876763343811</v>
+        <v>11.96602654457092</v>
       </c>
       <c r="C7" t="n">
-        <v>4.015132672</v>
+        <v>6.424211456</v>
       </c>
       <c r="D7" t="n">
-        <v>483.753173828125</v>
+        <v>37.32326126098633</v>
       </c>
       <c r="E7" t="n">
-        <v>656.3760986328125</v>
+        <v>60.71195602416992</v>
       </c>
       <c r="F7" t="n">
-        <v>62.17125382262997</v>
+        <v>83.91437308868501</v>
       </c>
       <c r="G7" t="n">
-        <v>56.31120783460283</v>
+        <v>73.17736670293797</v>
       </c>
       <c r="H7" t="n">
-        <v>33.5291774546903</v>
+        <v>64.2302330213105</v>
       </c>
       <c r="I7" t="n">
-        <v>52.24940805051303</v>
+        <v>66.85082872928176</v>
       </c>
       <c r="J7" t="n">
-        <v>29.08249158249158</v>
+        <v>65.78282828282829</v>
       </c>
       <c r="K7" t="n">
-        <v>24.74402730375427</v>
+        <v>43.1740614334471</v>
       </c>
       <c r="L7" t="n">
-        <v>26.4</v>
+        <v>37.2</v>
       </c>
       <c r="M7" t="n">
-        <v>40.64108086409743</v>
-      </c>
-      <c r="N7" t="n">
-        <v>29.94764142372413</v>
-      </c>
-      <c r="O7" t="n">
-        <v>33.3916112408042</v>
-      </c>
-      <c r="P7" t="n">
-        <v>114.0268469295137</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8.769864526887735</v>
-      </c>
-      <c r="R7" t="n">
-        <v>30677.48583984375</v>
-      </c>
+        <v>62.04709875121294</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.2949172682726795</v>
+        <v>0.152428786061587</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0869761951254196</v>
+        <v>0.02323453482020906</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1040,67 +1020,77 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>[19, 23, 26, 27, 28, 30]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>[18, 19, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>layerwise_only_2000</t>
+          <t>taylor_only_5000</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.04415154457092</v>
+        <v>7.478782892227173</v>
       </c>
       <c r="C8" t="n">
-        <v>6.466154496</v>
+        <v>4.015140864</v>
       </c>
       <c r="D8" t="n">
-        <v>30.72317123413086</v>
+        <v>426.2071533203125</v>
       </c>
       <c r="E8" t="n">
-        <v>51.16838073730469</v>
+        <v>535.9150390625</v>
       </c>
       <c r="F8" t="n">
-        <v>68.9908256880734</v>
+        <v>61.95718654434251</v>
       </c>
       <c r="G8" t="n">
-        <v>73.66702937976061</v>
+        <v>55.71273122959739</v>
       </c>
       <c r="H8" t="n">
-        <v>57.15992830113523</v>
+        <v>32.33419637522406</v>
       </c>
       <c r="I8" t="n">
-        <v>61.87845303867403</v>
+        <v>51.14443567482242</v>
       </c>
       <c r="J8" t="n">
-        <v>61.99494949494949</v>
+        <v>29.67171717171717</v>
       </c>
       <c r="K8" t="n">
-        <v>33.95904436860068</v>
+        <v>24.91467576791809</v>
       </c>
       <c r="L8" t="n">
-        <v>35.6</v>
+        <v>26</v>
       </c>
       <c r="M8" t="n">
-        <v>56.1786043244562</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+        <v>40.24784896623166</v>
+      </c>
+      <c r="N8" t="n">
+        <v>29.89982158290442</v>
+      </c>
+      <c r="O8" t="n">
+        <v>33.44501562416553</v>
+      </c>
+      <c r="P8" t="n">
+        <v>113.7604800808275</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8.790398909089467</v>
+      </c>
+      <c r="R8" t="n">
+        <v>30686.40771484375</v>
+      </c>
       <c r="S8" t="n">
-        <v>0.2714827601882688</v>
+        <v>0.2061670957176907</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07370288907944106</v>
+        <v>0.04250487135666745</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1114,19 +1104,19 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>[25, 26]</t>
+          <t>[23, 27]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>layerwise_only_5000</t>
+          <t>HGSP_5000</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1136,213 +1126,223 @@
         <v>4.015136768</v>
       </c>
       <c r="D9" t="n">
-        <v>295.2760314941406</v>
+        <v>315.2113952636719</v>
       </c>
       <c r="E9" t="n">
-        <v>330.7024230957031</v>
+        <v>373.3147583007812</v>
       </c>
       <c r="F9" t="n">
-        <v>49.26605504587156</v>
+        <v>39.02140672782875</v>
       </c>
       <c r="G9" t="n">
-        <v>56.42002176278563</v>
+        <v>56.25680087051143</v>
       </c>
       <c r="H9" t="n">
-        <v>31.88607847042422</v>
+        <v>33.03126867157937</v>
       </c>
       <c r="I9" t="n">
-        <v>49.88161010260458</v>
+        <v>48.85556432517759</v>
       </c>
       <c r="J9" t="n">
-        <v>30.38720538720538</v>
+        <v>29.84006734006734</v>
       </c>
       <c r="K9" t="n">
-        <v>23.97610921501706</v>
+        <v>24.31740614334471</v>
       </c>
       <c r="L9" t="n">
-        <v>25.8</v>
+        <v>27.4</v>
       </c>
       <c r="M9" t="n">
-        <v>38.23101142627263</v>
+        <v>36.96035915407273</v>
       </c>
       <c r="N9" t="n">
-        <v>32.45834457954891</v>
+        <v>32.68507940586287</v>
       </c>
       <c r="O9" t="n">
-        <v>30.80871846526861</v>
+        <v>30.59499986469746</v>
       </c>
       <c r="P9" t="n">
-        <v>123.1515685779893</v>
+        <v>125.0181738658593</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.120075217448175</v>
+        <v>7.998837041668594</v>
       </c>
       <c r="R9" t="n">
-        <v>30679.94677734375</v>
+        <v>30662.92333984375</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3089495280407759</v>
+        <v>0.3378571551011375</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09544981087661818</v>
+        <v>0.1141474572530341</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[11, 12, 25, 26]</t>
+          <t>[9, 10, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 23, 25, 26]</t>
+          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 23, 25, 26]</t>
+          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 19, 23, 25, 26]</t>
+          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>taylor_only_2000</t>
+          <t>layerwise_only_5000</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.96602654457092</v>
+        <v>7.478775262832642</v>
       </c>
       <c r="C10" t="n">
-        <v>6.424211456</v>
+        <v>4.015136768</v>
       </c>
       <c r="D10" t="n">
-        <v>37.32326126098633</v>
+        <v>295.2760314941406</v>
       </c>
       <c r="E10" t="n">
-        <v>60.71195602416992</v>
+        <v>330.7024230957031</v>
       </c>
       <c r="F10" t="n">
-        <v>83.91437308868501</v>
+        <v>49.26605504587156</v>
       </c>
       <c r="G10" t="n">
-        <v>73.17736670293797</v>
+        <v>56.42002176278563</v>
       </c>
       <c r="H10" t="n">
-        <v>64.2302330213105</v>
+        <v>31.88607847042422</v>
       </c>
       <c r="I10" t="n">
-        <v>66.85082872928176</v>
+        <v>49.88161010260458</v>
       </c>
       <c r="J10" t="n">
-        <v>65.78282828282829</v>
+        <v>30.38720538720538</v>
       </c>
       <c r="K10" t="n">
-        <v>43.1740614334471</v>
+        <v>23.97610921501706</v>
       </c>
       <c r="L10" t="n">
-        <v>37.2</v>
+        <v>25.8</v>
       </c>
       <c r="M10" t="n">
-        <v>62.04709875121294</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+        <v>38.23101142627263</v>
+      </c>
+      <c r="N10" t="n">
+        <v>32.45834457954891</v>
+      </c>
+      <c r="O10" t="n">
+        <v>30.80871846526861</v>
+      </c>
+      <c r="P10" t="n">
+        <v>123.1515685779893</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8.120075217448175</v>
+      </c>
+      <c r="R10" t="n">
+        <v>30679.94677734375</v>
+      </c>
       <c r="S10" t="n">
-        <v>0.152428786061587</v>
+        <v>0.3089495280407759</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02323453482020906</v>
+        <v>0.09544981087661818</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 10, 11, 12, 23, 25, 26]</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 10, 11, 12, 23, 25, 26]</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 10, 11, 12, 19, 23, 25, 26]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>taylor_only_5000</t>
+          <t>blockwise_only_5000</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.478782892227173</v>
+        <v>7.47876763343811</v>
       </c>
       <c r="C11" t="n">
-        <v>4.015140864</v>
+        <v>4.015132672</v>
       </c>
       <c r="D11" t="n">
-        <v>426.2071533203125</v>
+        <v>483.753173828125</v>
       </c>
       <c r="E11" t="n">
-        <v>535.9150390625</v>
+        <v>656.3760986328125</v>
       </c>
       <c r="F11" t="n">
-        <v>61.95718654434251</v>
+        <v>62.17125382262997</v>
       </c>
       <c r="G11" t="n">
-        <v>55.71273122959739</v>
+        <v>56.31120783460283</v>
       </c>
       <c r="H11" t="n">
-        <v>32.33419637522406</v>
+        <v>33.5291774546903</v>
       </c>
       <c r="I11" t="n">
-        <v>51.14443567482242</v>
+        <v>52.24940805051303</v>
       </c>
       <c r="J11" t="n">
-        <v>29.67171717171717</v>
+        <v>29.08249158249158</v>
       </c>
       <c r="K11" t="n">
-        <v>24.91467576791809</v>
+        <v>24.74402730375427</v>
       </c>
       <c r="L11" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="M11" t="n">
-        <v>40.24784896623166</v>
+        <v>40.64108086409743</v>
       </c>
       <c r="N11" t="n">
-        <v>29.89982158290442</v>
+        <v>29.94764142372413</v>
       </c>
       <c r="O11" t="n">
-        <v>33.44501562416553</v>
+        <v>33.3916112408042</v>
       </c>
       <c r="P11" t="n">
-        <v>113.7604800808275</v>
+        <v>114.0268469295137</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.790398909089467</v>
+        <v>8.769864526887735</v>
       </c>
       <c r="R11" t="n">
-        <v>30686.40771484375</v>
+        <v>30677.48583984375</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2061670957176907</v>
+        <v>0.2949172682726795</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04250487135666745</v>
+        <v>0.0869761951254196</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[19, 23, 26, 27, 28, 30]</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>[23, 27]</t>
+          <t>[18, 19, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
         </is>
       </c>
     </row>

--- a/summary_table.xlsx
+++ b/summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,640 +726,960 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>layerwise_only_2000</t>
+          <t>LLM-Pruner_1937_finetuned</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.04415154457092</v>
+        <v>12.06041729450226</v>
       </c>
       <c r="C4" t="n">
-        <v>6.466154496</v>
+        <v>6.474887168</v>
       </c>
       <c r="D4" t="n">
-        <v>30.72317123413086</v>
+        <v>26.15180969238281</v>
       </c>
       <c r="E4" t="n">
-        <v>51.16838073730469</v>
+        <v>44.88569259643555</v>
       </c>
       <c r="F4" t="n">
-        <v>68.9908256880734</v>
+        <v>73.45565749235475</v>
       </c>
       <c r="G4" t="n">
-        <v>73.66702937976061</v>
+        <v>75.35364526659413</v>
       </c>
       <c r="H4" t="n">
-        <v>57.15992830113523</v>
+        <v>66.21190997809201</v>
       </c>
       <c r="I4" t="n">
-        <v>61.87845303867403</v>
+        <v>60.69455406471981</v>
       </c>
       <c r="J4" t="n">
-        <v>61.99494949494949</v>
+        <v>66.54040404040404</v>
       </c>
       <c r="K4" t="n">
-        <v>33.95904436860068</v>
+        <v>45.56313993174061</v>
       </c>
       <c r="L4" t="n">
-        <v>35.6</v>
+        <v>37.6</v>
       </c>
       <c r="M4" t="n">
-        <v>56.1786043244562</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>0.2714827601882688</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.07370288907944106</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>[26]</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>[25, 26]</t>
-        </is>
-      </c>
+        <v>60.77418725341504</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29.08752953568207</v>
+      </c>
+      <c r="O4" t="n">
+        <v>34.37899388372898</v>
+      </c>
+      <c r="P4" t="n">
+        <v>110.3044141050825</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.065820331064364</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12357.9931640625</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HGSP_2000</t>
+          <t>layerwise_only_2000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.96604180335999</v>
+        <v>12.04415154457092</v>
       </c>
       <c r="C5" t="n">
-        <v>6.424219648</v>
+        <v>6.466154496</v>
       </c>
       <c r="D5" t="n">
-        <v>39.87115478515625</v>
+        <v>30.72317123413086</v>
       </c>
       <c r="E5" t="n">
-        <v>70.00041961669922</v>
+        <v>51.16838073730469</v>
       </c>
       <c r="F5" t="n">
-        <v>58.31804281345566</v>
+        <v>68.9908256880734</v>
       </c>
       <c r="G5" t="n">
-        <v>71.9260065288357</v>
+        <v>73.66702937976061</v>
       </c>
       <c r="H5" t="n">
-        <v>51.18502290380403</v>
+        <v>57.15992830113523</v>
       </c>
       <c r="I5" t="n">
-        <v>55.48539857932123</v>
+        <v>61.87845303867403</v>
       </c>
       <c r="J5" t="n">
-        <v>59.00673400673401</v>
+        <v>61.99494949494949</v>
       </c>
       <c r="K5" t="n">
-        <v>31.74061433447099</v>
+        <v>33.95904436860068</v>
       </c>
       <c r="L5" t="n">
-        <v>32.2</v>
+        <v>35.6</v>
       </c>
       <c r="M5" t="n">
-        <v>51.40883130951737</v>
-      </c>
-      <c r="N5" t="n">
-        <v>30.94747703674242</v>
-      </c>
-      <c r="O5" t="n">
-        <v>32.3128117620945</v>
-      </c>
-      <c r="P5" t="n">
-        <v>116.5976818611691</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>8.576499841486415</v>
-      </c>
-      <c r="R5" t="n">
-        <v>39882.05615234375</v>
-      </c>
+        <v>56.1786043244562</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.3644205431391497</v>
+        <v>0.2714827601882688</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1328023322618329</v>
+        <v>0.07370288907944106</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[11, 12, 25]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[9, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>[9, 11, 12, 25, 26]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 25, 26]</t>
+          <t>[25, 26]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>blockwise_only_2000</t>
+          <t>layerwise_only_2000_finetuned</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.96603417396545</v>
+        <v>12.04415142536163</v>
       </c>
       <c r="C6" t="n">
-        <v>6.424215552</v>
+        <v>6.466154496</v>
       </c>
       <c r="D6" t="n">
-        <v>38.34272384643555</v>
+        <v>26.22768974304199</v>
       </c>
       <c r="E6" t="n">
-        <v>58.84614562988281</v>
+        <v>45.4975700378418</v>
       </c>
       <c r="F6" t="n">
-        <v>83.79204892966361</v>
+        <v>75.19877675840979</v>
       </c>
       <c r="G6" t="n">
-        <v>72.68770402611534</v>
+        <v>76.11534276387377</v>
       </c>
       <c r="H6" t="n">
-        <v>63.90161322445728</v>
+        <v>68.72137024497113</v>
       </c>
       <c r="I6" t="n">
-        <v>66.85082872928176</v>
+        <v>63.61483820047356</v>
       </c>
       <c r="J6" t="n">
-        <v>65.86700336700336</v>
+        <v>69.82323232323232</v>
       </c>
       <c r="K6" t="n">
-        <v>43.25938566552901</v>
+        <v>44.02730375426621</v>
       </c>
       <c r="L6" t="n">
-        <v>37</v>
+        <v>39.8</v>
       </c>
       <c r="M6" t="n">
-        <v>61.90836913457863</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>0.1762101113524409</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.03105000334283961</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+        <v>62.47155200646096</v>
+      </c>
+      <c r="N6" t="n">
+        <v>28.68732253473037</v>
+      </c>
+      <c r="O6" t="n">
+        <v>34.85860344022512</v>
+      </c>
+      <c r="P6" t="n">
+        <v>108.6926693145111</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9.200252476148307</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12367.4072265625</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>taylor_only_2000</t>
+          <t>HGSP_2000</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.96602654457092</v>
+        <v>11.96604180335999</v>
       </c>
       <c r="C7" t="n">
-        <v>6.424211456</v>
+        <v>6.424219648</v>
       </c>
       <c r="D7" t="n">
-        <v>37.32326126098633</v>
+        <v>39.87115478515625</v>
       </c>
       <c r="E7" t="n">
-        <v>60.71195602416992</v>
+        <v>70.00041961669922</v>
       </c>
       <c r="F7" t="n">
-        <v>83.91437308868501</v>
+        <v>58.31804281345566</v>
       </c>
       <c r="G7" t="n">
-        <v>73.17736670293797</v>
+        <v>71.9260065288357</v>
       </c>
       <c r="H7" t="n">
-        <v>64.2302330213105</v>
+        <v>51.18502290380403</v>
       </c>
       <c r="I7" t="n">
-        <v>66.85082872928176</v>
+        <v>55.48539857932123</v>
       </c>
       <c r="J7" t="n">
-        <v>65.78282828282829</v>
+        <v>59.00673400673401</v>
       </c>
       <c r="K7" t="n">
-        <v>43.1740614334471</v>
+        <v>31.74061433447099</v>
       </c>
       <c r="L7" t="n">
-        <v>37.2</v>
+        <v>32.2</v>
       </c>
       <c r="M7" t="n">
-        <v>62.04709875121294</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+        <v>51.40883130951737</v>
+      </c>
+      <c r="N7" t="n">
+        <v>30.94747703674242</v>
+      </c>
+      <c r="O7" t="n">
+        <v>32.3128117620945</v>
+      </c>
+      <c r="P7" t="n">
+        <v>116.5976818611691</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.576499841486415</v>
+      </c>
+      <c r="R7" t="n">
+        <v>39882.05615234375</v>
+      </c>
       <c r="S7" t="n">
-        <v>0.152428786061587</v>
+        <v>0.3644205431391497</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02323453482020906</v>
+        <v>0.1328023322618329</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[11, 12, 25]</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 11, 12, 25, 26]</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[9, 10, 11, 12, 25, 26]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>taylor_only_5000</t>
+          <t>HGSP_2000_finetuned</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.478782892227173</v>
+        <v>11.9660416841507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.015140864</v>
+        <v>6.424219648</v>
       </c>
       <c r="D8" t="n">
-        <v>426.2071533203125</v>
+        <v>26.32407569885254</v>
       </c>
       <c r="E8" t="n">
-        <v>535.9150390625</v>
+        <v>47.23903274536133</v>
       </c>
       <c r="F8" t="n">
-        <v>61.95718654434251</v>
+        <v>68.96024464831805</v>
       </c>
       <c r="G8" t="n">
-        <v>55.71273122959739</v>
+        <v>76.11534276387377</v>
       </c>
       <c r="H8" t="n">
-        <v>32.33419637522406</v>
+        <v>68.47241585341565</v>
       </c>
       <c r="I8" t="n">
-        <v>51.14443567482242</v>
+        <v>62.66771902131018</v>
       </c>
       <c r="J8" t="n">
-        <v>29.67171717171717</v>
+        <v>69.65488215488216</v>
       </c>
       <c r="K8" t="n">
-        <v>24.91467576791809</v>
+        <v>43.85665529010239</v>
       </c>
       <c r="L8" t="n">
-        <v>26</v>
+        <v>41.4</v>
       </c>
       <c r="M8" t="n">
-        <v>40.24784896623166</v>
+        <v>61.5896085331289</v>
       </c>
       <c r="N8" t="n">
-        <v>29.89982158290442</v>
+        <v>30.15585032837787</v>
       </c>
       <c r="O8" t="n">
-        <v>33.44501562416553</v>
+        <v>33.16106125712395</v>
       </c>
       <c r="P8" t="n">
-        <v>113.7604800808275</v>
+        <v>113.9431638946675</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.790398909089467</v>
+        <v>8.776305359788239</v>
       </c>
       <c r="R8" t="n">
-        <v>30686.40771484375</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2061670957176907</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.04250487135666745</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>[23, 27]</t>
-        </is>
-      </c>
+        <v>12289.0712890625</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HGSP_5000</t>
+          <t>blockwise_only_2000</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.478775262832642</v>
+        <v>11.96603417396545</v>
       </c>
       <c r="C9" t="n">
-        <v>4.015136768</v>
+        <v>6.424215552</v>
       </c>
       <c r="D9" t="n">
-        <v>315.2113952636719</v>
+        <v>38.34272384643555</v>
       </c>
       <c r="E9" t="n">
-        <v>373.3147583007812</v>
+        <v>58.84614562988281</v>
       </c>
       <c r="F9" t="n">
-        <v>39.02140672782875</v>
+        <v>83.79204892966361</v>
       </c>
       <c r="G9" t="n">
-        <v>56.25680087051143</v>
+        <v>72.68770402611534</v>
       </c>
       <c r="H9" t="n">
-        <v>33.03126867157937</v>
+        <v>63.90161322445728</v>
       </c>
       <c r="I9" t="n">
-        <v>48.85556432517759</v>
+        <v>66.85082872928176</v>
       </c>
       <c r="J9" t="n">
-        <v>29.84006734006734</v>
+        <v>65.86700336700336</v>
       </c>
       <c r="K9" t="n">
-        <v>24.31740614334471</v>
+        <v>43.25938566552901</v>
       </c>
       <c r="L9" t="n">
-        <v>27.4</v>
+        <v>37</v>
       </c>
       <c r="M9" t="n">
-        <v>36.96035915407273</v>
-      </c>
-      <c r="N9" t="n">
-        <v>32.68507940586287</v>
-      </c>
-      <c r="O9" t="n">
-        <v>30.59499986469746</v>
-      </c>
-      <c r="P9" t="n">
-        <v>125.0181738658593</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.998837041668594</v>
-      </c>
-      <c r="R9" t="n">
-        <v>30662.92333984375</v>
-      </c>
+        <v>61.90836913457863</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0.3378571551011375</v>
+        <v>0.1762101113524409</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1141474572530341</v>
+        <v>0.03105000334283961</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>layerwise_only_5000</t>
+          <t>blockwise_only_2000_finetuned</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.478775262832642</v>
+        <v>11.96603405475616</v>
       </c>
       <c r="C10" t="n">
-        <v>4.015136768</v>
+        <v>6.424215552</v>
       </c>
       <c r="D10" t="n">
-        <v>295.2760314941406</v>
+        <v>29.0403003692627</v>
       </c>
       <c r="E10" t="n">
-        <v>330.7024230957031</v>
+        <v>47.44215393066406</v>
       </c>
       <c r="F10" t="n">
-        <v>49.26605504587156</v>
+        <v>83.48623853211009</v>
       </c>
       <c r="G10" t="n">
-        <v>56.42002176278563</v>
+        <v>74.42872687704026</v>
       </c>
       <c r="H10" t="n">
-        <v>31.88607847042422</v>
+        <v>70.3047201752639</v>
       </c>
       <c r="I10" t="n">
-        <v>49.88161010260458</v>
+        <v>68.98184688239937</v>
       </c>
       <c r="J10" t="n">
-        <v>30.38720538720538</v>
+        <v>67.67676767676768</v>
       </c>
       <c r="K10" t="n">
-        <v>23.97610921501706</v>
+        <v>45.13651877133105</v>
       </c>
       <c r="L10" t="n">
-        <v>25.8</v>
+        <v>40.6</v>
       </c>
       <c r="M10" t="n">
-        <v>38.23101142627263</v>
+        <v>64.3735455592732</v>
       </c>
       <c r="N10" t="n">
-        <v>32.45834457954891</v>
+        <v>29.21946494333229</v>
       </c>
       <c r="O10" t="n">
-        <v>30.80871846526861</v>
+        <v>34.22376152127981</v>
       </c>
       <c r="P10" t="n">
-        <v>123.1515685779893</v>
+        <v>110.8059535885923</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.120075217448175</v>
+        <v>9.024785831570625</v>
       </c>
       <c r="R10" t="n">
-        <v>30679.94677734375</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.3089495280407759</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.09544981087661818</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>[11, 12, 25, 26]</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>[9, 10, 11, 12, 23, 25, 26]</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>[9, 10, 11, 12, 23, 25, 26]</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>[9, 10, 11, 12, 19, 23, 25, 26]</t>
-        </is>
-      </c>
+        <v>12295.5322265625</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>taylor_only_2000</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.96602654457092</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.424211456</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37.32326126098633</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60.71195602416992</v>
+      </c>
+      <c r="F11" t="n">
+        <v>83.91437308868501</v>
+      </c>
+      <c r="G11" t="n">
+        <v>73.17736670293797</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64.2302330213105</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66.85082872928176</v>
+      </c>
+      <c r="J11" t="n">
+        <v>65.78282828282829</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.1740614334471</v>
+      </c>
+      <c r="L11" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>62.04709875121294</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>0.152428786061587</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.02323453482020906</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>taylor_only_2000_finetuned</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11.96602642536163</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.424211456</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.25270462036133</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47.58385467529297</v>
+      </c>
+      <c r="F12" t="n">
+        <v>84.80122324159022</v>
+      </c>
+      <c r="G12" t="n">
+        <v>76.00652883569097</v>
+      </c>
+      <c r="H12" t="n">
+        <v>70.0458076080462</v>
+      </c>
+      <c r="I12" t="n">
+        <v>67.5611681136543</v>
+      </c>
+      <c r="J12" t="n">
+        <v>67.12962962962963</v>
+      </c>
+      <c r="K12" t="n">
+        <v>45.39249146757679</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>64.3338355565983</v>
+      </c>
+      <c r="N12" t="n">
+        <v>30.18955798209804</v>
+      </c>
+      <c r="O12" t="n">
+        <v>33.12403582036495</v>
+      </c>
+      <c r="P12" t="n">
+        <v>114.1706306491633</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.75881997247537</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12285.9541015625</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>taylor_only_5000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.478782892227173</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.015140864</v>
+      </c>
+      <c r="D13" t="n">
+        <v>426.2071533203125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>535.9150390625</v>
+      </c>
+      <c r="F13" t="n">
+        <v>61.95718654434251</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55.71273122959739</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32.33419637522406</v>
+      </c>
+      <c r="I13" t="n">
+        <v>51.14443567482242</v>
+      </c>
+      <c r="J13" t="n">
+        <v>29.67171717171717</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24.91467576791809</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26</v>
+      </c>
+      <c r="M13" t="n">
+        <v>40.24784896623166</v>
+      </c>
+      <c r="N13" t="n">
+        <v>29.89982158290442</v>
+      </c>
+      <c r="O13" t="n">
+        <v>33.44501562416553</v>
+      </c>
+      <c r="P13" t="n">
+        <v>113.7604800808275</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.790398909089467</v>
+      </c>
+      <c r="R13" t="n">
+        <v>30686.40771484375</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.2061670957176907</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.04250487135666745</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>[23, 27]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HGSP_5000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.478775262832642</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.015136768</v>
+      </c>
+      <c r="D14" t="n">
+        <v>315.2113952636719</v>
+      </c>
+      <c r="E14" t="n">
+        <v>373.3147583007812</v>
+      </c>
+      <c r="F14" t="n">
+        <v>39.02140672782875</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56.25680087051143</v>
+      </c>
+      <c r="H14" t="n">
+        <v>33.03126867157937</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48.85556432517759</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29.84006734006734</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24.31740614334471</v>
+      </c>
+      <c r="L14" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>36.96035915407273</v>
+      </c>
+      <c r="N14" t="n">
+        <v>32.68507940586287</v>
+      </c>
+      <c r="O14" t="n">
+        <v>30.59499986469746</v>
+      </c>
+      <c r="P14" t="n">
+        <v>125.0181738658593</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.998837041668594</v>
+      </c>
+      <c r="R14" t="n">
+        <v>30662.92333984375</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3378571551011375</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1141474572530341</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>[9, 10, 11, 12, 25, 26]</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>[7, 8, 9, 10, 11, 12, 25, 26]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>layerwise_only_5000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.478775262832642</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.015136768</v>
+      </c>
+      <c r="D15" t="n">
+        <v>295.2760314941406</v>
+      </c>
+      <c r="E15" t="n">
+        <v>330.7024230957031</v>
+      </c>
+      <c r="F15" t="n">
+        <v>49.26605504587156</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56.42002176278563</v>
+      </c>
+      <c r="H15" t="n">
+        <v>31.88607847042422</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49.88161010260458</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30.38720538720538</v>
+      </c>
+      <c r="K15" t="n">
+        <v>23.97610921501706</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>38.23101142627263</v>
+      </c>
+      <c r="N15" t="n">
+        <v>32.45834457954891</v>
+      </c>
+      <c r="O15" t="n">
+        <v>30.80871846526861</v>
+      </c>
+      <c r="P15" t="n">
+        <v>123.1515685779893</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8.120075217448175</v>
+      </c>
+      <c r="R15" t="n">
+        <v>30679.94677734375</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3089495280407759</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.09544981087661818</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>[11, 12, 25, 26]</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>[9, 10, 11, 12, 23, 25, 26]</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>[9, 10, 11, 12, 23, 25, 26]</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>[9, 10, 11, 12, 19, 23, 25, 26]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>blockwise_only_5000</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>7.47876763343811</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>4.015132672</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>483.753173828125</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E16" t="n">
         <v>656.3760986328125</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F16" t="n">
         <v>62.17125382262997</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G16" t="n">
         <v>56.31120783460283</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>33.5291774546903</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>52.24940805051303</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J16" t="n">
         <v>29.08249158249158</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K16" t="n">
         <v>24.74402730375427</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>26.4</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M16" t="n">
         <v>40.64108086409743</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N16" t="n">
         <v>29.94764142372413</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O16" t="n">
         <v>33.3916112408042</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P16" t="n">
         <v>114.0268469295137</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q16" t="n">
         <v>8.769864526887735</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R16" t="n">
         <v>30677.48583984375</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S16" t="n">
         <v>0.2949172682726795</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T16" t="n">
         <v>0.0869761951254196</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>[19, 23, 26, 27, 28, 30]</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>[18, 19, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
         </is>
